--- a/Project for Ariel.xlsx
+++ b/Project for Ariel.xlsx
@@ -128,13 +128,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -305,78 +305,26 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Import Data from Python</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t> to Postgres</a:t>
           </a:r>
-          <a:endParaRPr lang="he-IL" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C33D7E9-703D-420B-95C6-3424C6493DAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9286875" y="323850"/>
-          <a:ext cx="1609725" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
-            <a:t>Clean the Data in Postgres</a:t>
-          </a:r>
-          <a:endParaRPr lang="he-IL" sz="1800"/>
+          <a:endParaRPr lang="he-IL" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1227,16 +1175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>258332</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>160768</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>382157</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>105932</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182132</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>229757</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144032</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1251,7 +1199,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9239250" y="1466850"/>
+          <a:off x="8753475" y="1238250"/>
           <a:ext cx="783364" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -1648,7 +1596,7 @@
   <dimension ref="X1:Y9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,16 +1605,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="2"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1703,7 +1651,7 @@
       </c>
     </row>
     <row r="7" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>5</v>
       </c>
       <c r="Y7" s="1" t="s">
@@ -1711,7 +1659,7 @@
       </c>
     </row>
     <row r="8" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X8" s="4">
+      <c r="X8" s="3">
         <v>6</v>
       </c>
       <c r="Y8" s="1" t="s">
@@ -1719,10 +1667,10 @@
       </c>
     </row>
     <row r="9" spans="24:25" x14ac:dyDescent="0.25">
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>7</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Y9" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Project for Ariel.xlsx
+++ b/Project for Ariel.xlsx
@@ -238,7 +238,7 @@
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> API by Python</a:t>
+            <a:t> API with Python</a:t>
           </a:r>
           <a:endParaRPr lang="he-IL" sz="2000">
             <a:solidFill>
@@ -889,7 +889,7 @@
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>from AWDW2017 Tables and import the Data from it in the JSON format to GitHub</a:t>
+            <a:t>from AWDW2017 Tables and import the Data from it in JSON format to GitHub</a:t>
           </a:r>
           <a:endParaRPr lang="he-IL" sz="1800">
             <a:solidFill>
